--- a/Data Ship.xlsx
+++ b/Data Ship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Freelancing\Genetic Algorithm Jaringan Kapal\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1450C7-ED9A-4A33-9FA2-E4450D65AD96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0B49C-8689-4933-A033-8E735868CC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{94031A23-C29B-486C-BAE1-1C1B451DA7BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TL1" sheetId="3" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Kailakat</t>
   </si>
   <si>
-    <t>Kasiui</t>
-  </si>
-  <si>
     <t>Kaimer</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>P.Kur</t>
+  </si>
+  <si>
+    <t>Kaisui</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7ECCF7-521D-422E-A0AE-C373C69572FD}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -702,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -713,21 +713,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,12 +742,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -830,21 +830,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,12 +859,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -933,10 +933,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="21" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1087,26 +1087,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,12 +1126,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B6196F-AFA5-4892-9CF0-5002DFC6B465}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,10 +1193,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1243,107 +1243,107 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +1366,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1377,166 +1377,166 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
